--- a/ins.xlsx
+++ b/ins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Ingeniería en Computación\Quinto Semestre\Estructura y Programación de Computadoras\Proyecto 1\compilador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Ingeniería en Computación\Quinto Semestre\MC68HC11\Proyecto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FE27B2-AAB5-4990-BD87-B2D33B7DF122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D1500-A8DE-47BE-8C66-4DD1808A9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-495" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32080" yWindow="-2010" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="391">
   <si>
     <t>UNIVERSIDAD  NACIONAL AUTÓNOMA DE MÉXICO</t>
   </si>
@@ -1140,9 +1140,6 @@
     <t>0 4</t>
   </si>
   <si>
-    <t>18A 7</t>
-  </si>
-  <si>
     <t>18 AF</t>
   </si>
   <si>
@@ -1195,6 +1192,12 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>18 A7</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1918,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,13 +2138,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2165,6 +2162,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2475,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,83 +2522,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
     </row>
     <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,41 +2606,41 @@
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="85"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="75" t="s">
-        <v>388</v>
-      </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="76" t="s">
+      <c r="P6" s="85"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="75" t="s">
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7183,8 +7189,8 @@
       <c r="Q71" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="R71" s="39">
-        <v>9</v>
+      <c r="R71" s="75" t="s">
+        <v>389</v>
       </c>
       <c r="S71" s="27">
         <v>3</v>
@@ -9454,7 +9460,7 @@
         <v>73</v>
       </c>
       <c r="R103" s="74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S103" s="27">
         <v>2</v>
@@ -11211,7 +11217,7 @@
         <v>2</v>
       </c>
       <c r="L128" s="39" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="M128" s="27">
         <v>5</v>
@@ -11353,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="L130" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M130" s="27">
         <v>6</v>
@@ -11495,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="L132" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M132" s="27">
         <v>6</v>
@@ -11566,7 +11572,7 @@
         <v>2</v>
       </c>
       <c r="L133" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M133" s="27">
         <v>6</v>
@@ -11619,7 +11625,7 @@
         <v>73</v>
       </c>
       <c r="F134" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G134" s="27">
         <v>5</v>
@@ -11628,7 +11634,7 @@
         <v>3</v>
       </c>
       <c r="I134" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J134" s="27">
         <v>6</v>
@@ -11637,7 +11643,7 @@
         <v>3</v>
       </c>
       <c r="L134" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M134" s="27">
         <v>6</v>
@@ -11708,7 +11714,7 @@
         <v>2</v>
       </c>
       <c r="L135" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M135" s="27">
         <v>5</v>
@@ -11850,7 +11856,7 @@
         <v>2</v>
       </c>
       <c r="L137" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M137" s="27">
         <v>7</v>
@@ -12229,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="T142" s="51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U142" s="26" t="s">
         <v>73</v>
@@ -12347,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="L144" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M144" s="27">
         <v>7</v>
@@ -12649,7 +12655,7 @@
         <v>73</v>
       </c>
       <c r="R148" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S148" s="27">
         <v>4</v>
@@ -12672,7 +12678,7 @@
         <v>141</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C149" s="26" t="s">
         <v>73</v>
@@ -12791,7 +12797,7 @@
         <v>73</v>
       </c>
       <c r="R150" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S150" s="27">
         <v>4</v>
@@ -12865,7 +12871,7 @@
         <v>301</v>
       </c>
       <c r="S151" s="49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T151" s="30">
         <v>1</v>
@@ -13004,7 +13010,7 @@
         <v>73</v>
       </c>
       <c r="R153" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S153" s="55">
         <v>4</v>
@@ -13028,47 +13034,47 @@
     </row>
     <row r="167" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
-      <c r="E167" s="78"/>
-      <c r="F167" s="78"/>
-      <c r="G167" s="79"/>
-      <c r="H167" s="79"/>
-      <c r="I167" s="79"/>
-      <c r="J167" s="79"/>
-      <c r="K167" s="78"/>
-      <c r="L167" s="78"/>
-      <c r="M167" s="79"/>
-      <c r="N167" s="79"/>
-      <c r="O167" s="79"/>
-      <c r="P167" s="79"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
+      <c r="I167" s="77"/>
+      <c r="J167" s="77"/>
+      <c r="K167" s="76"/>
+      <c r="L167" s="76"/>
+      <c r="M167" s="77"/>
+      <c r="N167" s="77"/>
+      <c r="O167" s="77"/>
+      <c r="P167" s="77"/>
       <c r="Q167" s="7"/>
       <c r="R167" s="7"/>
     </row>
     <row r="168" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E168" s="78"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="79"/>
-      <c r="H168" s="79"/>
-      <c r="I168" s="79"/>
-      <c r="J168" s="79"/>
-      <c r="K168" s="78"/>
-      <c r="L168" s="78"/>
-      <c r="M168" s="79"/>
-      <c r="N168" s="79"/>
-      <c r="O168" s="79"/>
-      <c r="P168" s="79"/>
+      <c r="E168" s="76"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="77"/>
+      <c r="H168" s="77"/>
+      <c r="I168" s="77"/>
+      <c r="J168" s="77"/>
+      <c r="K168" s="76"/>
+      <c r="L168" s="76"/>
+      <c r="M168" s="77"/>
+      <c r="N168" s="77"/>
+      <c r="O168" s="77"/>
+      <c r="P168" s="77"/>
       <c r="Q168" s="7"/>
       <c r="R168" s="7"/>
     </row>
     <row r="169" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K169" s="78"/>
-      <c r="L169" s="78"/>
-      <c r="M169" s="78"/>
-      <c r="N169" s="78"/>
-      <c r="O169" s="78"/>
-      <c r="P169" s="79"/>
-      <c r="Q169" s="79"/>
-      <c r="R169" s="79"/>
-      <c r="S169" s="80"/>
+      <c r="K169" s="76"/>
+      <c r="L169" s="76"/>
+      <c r="M169" s="76"/>
+      <c r="N169" s="76"/>
+      <c r="O169" s="76"/>
+      <c r="P169" s="77"/>
+      <c r="Q169" s="77"/>
+      <c r="R169" s="77"/>
+      <c r="S169" s="78"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L170" s="7"/>
